--- a/MVP/SHOPPING_LISTS/PTFE TUBE SHOP.xlsx
+++ b/MVP/SHOPPING_LISTS/PTFE TUBE SHOP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -52,12 +52,18 @@
     <t>13-018420</t>
   </si>
   <si>
+    <t>13-018370</t>
+  </si>
+  <si>
     <t>MVP-PRT: PTFE TUBING 1/16" OD - 0.8 ID</t>
   </si>
   <si>
     <t>MVP-PRT: PTFE TUBING, 1/8" ID, 1/4" OD</t>
   </si>
   <si>
+    <t>MVP-PRT: PTFE TUBING 1/8" OD - 1.6 ID</t>
+  </si>
+  <si>
     <t>PTFE TUBE SHOP</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>PTFE SLANG 3.2mm x 6.4mm</t>
+  </si>
+  <si>
+    <t>PTFE SLANG 1.6mm x 3.2mm</t>
   </si>
   <si>
     <t>PTFE (general)</t>
@@ -439,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -449,7 +458,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
@@ -496,16 +505,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -519,18 +528,41 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="1">
+        <v>127</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1">
         <v>1</v>
       </c>
     </row>

--- a/MVP/SHOPPING_LISTS/PTFE TUBE SHOP.xlsx
+++ b/MVP/SHOPPING_LISTS/PTFE TUBE SHOP.xlsx
@@ -499,7 +499,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
